--- a/biology/Zoologie/Betta_tussyae/Betta_tussyae.xlsx
+++ b/biology/Zoologie/Betta_tussyae/Betta_tussyae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Betta tussyae est une espèce de poissons d'eau douce de la famille des Osphronemidae endémique de Malaisie, on le trouve principalement à Pahang.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Betta tussyae mesure entre 30 et 37 mm. Les individus sont fréquemment de couleur rouge.
 Les individus adultes de cette espèce arborent un dimorphisme sexuel ; les mâles sont plus colorés et développent des nageoires plus longues que celles des femelles.
@@ -546,9 +560,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, tussyae, lui a été donné en l'honneur de Tussy Nagy qui, avec son mari Peter Nagy (aquariophile autrichien), furent les premiers à introduire cette espèce en Europe[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, tussyae, lui a été donné en l'honneur de Tussy Nagy qui, avec son mari Peter Nagy (aquariophile autrichien), furent les premiers à introduire cette espèce en Europe.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Dieter Schaller, « Betta tussyae spec. nov., ein neuer Kampffisch aus Malaysia (vorläufige Mitteilung) », DATZ, Allemagne, Natur und Tier - Verlag (d), vol. 38, no 8,‎ août 1985, p. 348-350 (ISSN 1616-3222 et 0003-7265, lire en ligne)</t>
         </is>
